--- a/biology/Médecine/Jean-Joseph_Brieude/Jean-Joseph_Brieude.xlsx
+++ b/biology/Médecine/Jean-Joseph_Brieude/Jean-Joseph_Brieude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Joseph Brieude est un médecin, agronome et géographe français (né en 1729 à Laroquebrou dans le département du Cantal, mort en 1812 à Paris) qui fut médecin de Madame la Duchesse de Bourbon et du Duc d'orléans.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a épousé Elisabeth Esquirou, fille du Docteur Jean Esquirou, directeur et intendant des eaux minérales de Vic-en-Carladès[1], et de Marthe Frayssi. Son fils, Louis Brieude (1771-1823) fut couronné par l'Académie de Renne pour son Éloge de Duclos et se suicida.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a épousé Elisabeth Esquirou, fille du Docteur Jean Esquirou, directeur et intendant des eaux minérales de Vic-en-Carladès, et de Marthe Frayssi. Son fils, Louis Brieude (1771-1823) fut couronné par l'Académie de Renne pour son Éloge de Duclos et se suicida.
 Il est l'auteur de plusieurs ouvrages scientifiques concernant la médecine, les cures thermales, la géographie de l'Auvergne du point de vue médical, climatique, géologique et agronomique. il est le premier à avoir fait la description en 1782 sous le nom de " race du Cantal " de la race bovine connu actuellement sous le nom de vaches d'Aubrac.
 Ses principales publications sont:
 Observation sur les eaux thermales de Bourbon-l'Archambault, de Vichy et du Mont-Dore, faites dans un voyage par ordre du gouvernement, lues à la société royale de médecine, dans ses séances particulières, 1788, Paris.
